--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1613505.661768916</v>
+        <v>-1572410.485807158</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10768601.38842914</v>
+        <v>10777689.2915212</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>157.6000998910736</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>72.18053195861752</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.84335626731421</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>117.9819796806479</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>11.49061782428508</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>267.7357237463023</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>60.59187003628659</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27.20350533122125</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>184.9203686683008</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>146.6325435271071</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1379,7 +1379,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>103.278631246205</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>5.990622819018972</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>98.731207065898</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735226122</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>163.6395778340019</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>172.6623007436909</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934469</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3430,7 +3430,7 @@
         <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730222</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
         <v>158.704273159114</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934469</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3661,7 +3661,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>154.6003840628592</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3800,7 +3800,7 @@
         <v>342.7550702267644</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043299</v>
       </c>
       <c r="X41" t="n">
         <v>398.715328447735</v>
@@ -3913,10 +3913,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934458</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>411.1540476591137</v>
+        <v>1050.001581919986</v>
       </c>
       <c r="C2" t="n">
-        <v>377.0519788829411</v>
+        <v>1050.001581919986</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4328,52 +4328,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1624.27380183939</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.27380183939</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.27380183939</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1261.656851773216</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>856.8013971842493</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="X2" t="n">
-        <v>437.6589337635599</v>
+        <v>1476.301152404893</v>
       </c>
       <c r="Y2" t="n">
-        <v>433.4132141036174</v>
+        <v>1476.301152404893</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>765.7237088215209</v>
+        <v>634.9466684129169</v>
       </c>
       <c r="C4" t="n">
-        <v>593.1619973047458</v>
+        <v>634.9466684129169</v>
       </c>
       <c r="D4" t="n">
-        <v>427.2840045062685</v>
+        <v>469.0686756144395</v>
       </c>
       <c r="E4" t="n">
-        <v>257.5260007570058</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F4" t="n">
-        <v>257.5260007570058</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>257.5260007570058</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>117.6238264473803</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1578.009713231278</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1299.576712484383</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.568731954216</v>
+        <v>1299.576712484383</v>
       </c>
       <c r="W4" t="n">
-        <v>957.542327540508</v>
+        <v>1299.576712484383</v>
       </c>
       <c r="X4" t="n">
-        <v>957.542327540508</v>
+        <v>1054.184957817796</v>
       </c>
       <c r="Y4" t="n">
-        <v>957.542327540508</v>
+        <v>826.765287131904</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>2073.224678607652</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1635.082205791075</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1199.17242096552</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>1169.438080164219</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.5706505734267</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>340.1728191966906</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.0426646399069</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>485.8805627199648</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>562.6504997812827</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1189.145706210988</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1815.640912640694</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2362.139698599288</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352345</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352345</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2519.68707868135</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2519.68707868135</v>
       </c>
       <c r="V5" t="n">
-        <v>855.2769502042993</v>
+        <v>2519.68707868135</v>
       </c>
       <c r="W5" t="n">
-        <v>450.4214956153326</v>
+        <v>2518.872028132787</v>
       </c>
       <c r="X5" t="n">
-        <v>179.9813706190676</v>
+        <v>2503.769968752502</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>2499.52424909256</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583397</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.341159094982</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415353</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.130455568489</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846506</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083444</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.6895484275045</v>
       </c>
       <c r="J6" t="n">
-        <v>319.8519551513677</v>
+        <v>401.2478733937168</v>
       </c>
       <c r="K6" t="n">
-        <v>319.8519551513677</v>
+        <v>1027.743079823422</v>
       </c>
       <c r="L6" t="n">
-        <v>319.8519551513677</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.953920019441</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.231555524841</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.4547363200022</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588821</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381029</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>848.5896159940744</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>676.0279044772993</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>510.149911678822</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>340.3919079295593</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.1879988019971</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.1879988019971</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923716</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704691</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>275.972293185371</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>694.182174953332</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1153.666042134245</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1595.92484529189</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2015.594094517671</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2363.100988488013</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352345</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2509.875942057717</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2350.634573355714</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2350.634573355714</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2072.201572608819</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1785.246064479249</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1513.219660065541</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1267.827905398953</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>1040.408234713062</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>828.0282190637201</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>370.4264486716271</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>771.6250763881362</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>366.7696217991695</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>179.9813706190676</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.4397056785397</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>711.8779941617646</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>546.0000013632873</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>376.2419976140245</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1549.069749750006</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1549.069749750006</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1549.069749750006</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1549.069749750006</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1549.069749750006</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1303.677995083419</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1076.258324397527</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2506.387139754336</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2068.244666937759</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1632.334882112204</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.560137270499</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>770.6927076797067</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029705</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618679</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618679</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991046</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157282</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1653.247759947042</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1653.247759947042</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>1653.247759947042</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2633.427426517348</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3461.737301350744</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4008.236087309339</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309339</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493176</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366215</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.294683683232</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3445.294683683232</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3445.294683683232</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3340.97283393959</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2932.686710239243</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374796</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.8800055741219</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206751</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476288</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637904</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299743</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618679</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066444</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728567</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1111.520239943234</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.77040200398</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991419</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380219</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1070.562933132743</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>898.0012216159683</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>732.1232288174911</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>562.3652250682284</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>385.6581710299846</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>220.0668960558123</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618679</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618679</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108766</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820122</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499733</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.582962946983</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.703516525438</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.270515778544</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>2007.219381617918</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1735.19297720421</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1489.801222537622</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1262.381551851731</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5279,40 +5279,40 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
@@ -5321,7 +5321,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.996046390399</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C16" t="n">
-        <v>798.4343348736239</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D16" t="n">
-        <v>632.5563420751466</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E16" t="n">
-        <v>462.7983383258839</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F16" t="n">
-        <v>286.0912842876401</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G16" t="n">
-        <v>120.5000093134677</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5437,49 +5437,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006609</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>881.80886177457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752038</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005143</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.652494875574</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461865</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795278</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.814665109386</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5513,52 +5513,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2769.623329187108</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>3895.354312623555</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O17" t="n">
-        <v>3895.354312623555</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5698,7 +5698,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
         <v>2454.80183470935</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,43 +5996,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,22 +6233,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
         <v>5029.390139722817</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,43 +6449,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
         <v>5029.390139722817</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,19 +6710,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
         <v>1166.762996961501</v>
@@ -6929,10 +6929,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
@@ -6959,7 +6959,7 @@
         <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
         <v>4811.083017387606</v>
@@ -6968,16 +6968,16 @@
         <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W35" t="n">
         <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7008,10 +7008,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
         <v>448.1887018024878</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F37" t="n">
         <v>442.520979946312</v>
@@ -7111,34 +7111,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W37" t="n">
         <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="38">
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>444.7825334645028</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1279.132825422681</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7327,7 +7327,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7351,10 +7351,10 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7388,55 +7388,55 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581786</v>
+        <v>444.7825334645019</v>
       </c>
       <c r="K41" t="n">
-        <v>540.31673232073</v>
+        <v>1279.13282542268</v>
       </c>
       <c r="L41" t="n">
-        <v>1615.376698573589</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M41" t="n">
-        <v>2772.42453378414</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N41" t="n">
-        <v>3898.155517220587</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>4878.335183790893</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4878.335183790893</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790893</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
         <v>4607.415497673521</v>
@@ -7451,7 +7451,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7482,10 +7482,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
@@ -7546,16 +7546,16 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
         <v>293.3294123850158</v>
@@ -7564,7 +7564,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,19 +7585,19 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7646,52 +7646,52 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>444.7825334645019</v>
       </c>
       <c r="K44" t="n">
-        <v>540.3167323207291</v>
+        <v>1279.13282542268</v>
       </c>
       <c r="L44" t="n">
-        <v>1615.376698573589</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="M44" t="n">
-        <v>2772.424533784139</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="N44" t="n">
-        <v>3898.155517220586</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O44" t="n">
-        <v>4878.335183790892</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P44" t="n">
-        <v>4878.335183790892</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790892</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7804,25 +7804,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758679</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856844</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
         <v>2842.813139461497</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8058,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>77.54539097102821</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8292,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.49579817779636</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>227.6226443619435</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,10 +8693,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>306.5434937270295</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8927,16 +8927,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9176,16 +9176,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P17" t="n">
-        <v>507.105909296743</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>350.723060392611</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K41" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K44" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>186.304083389242</v>
+        <v>273.9505870862263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>154.509361693344</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>311.6724075402774</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.0953302292548</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.48800580459452</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>120.446375214268</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-5.621812378548876e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.198091796324334e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>139.5921776627258</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>63.43016517136702</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>856994.3786343859</v>
+        <v>711947.2103675252</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>935979.0301950992</v>
+        <v>944533.1265502943</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>935979.0301950992</v>
+        <v>945956.2318412331</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795660.7931730215</v>
+        <v>949413.385752339</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>949413.3857523393</v>
+        <v>949413.385752339</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>949413.3857523389</v>
+        <v>949413.385752339</v>
       </c>
     </row>
     <row r="9">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24484.28800744063</v>
+        <v>20218.19482312119</v>
       </c>
       <c r="C2" t="n">
-        <v>26807.36599452043</v>
+        <v>26807.36599452042</v>
       </c>
       <c r="D2" t="n">
         <v>26807.36599452042</v>
       </c>
       <c r="E2" t="n">
-        <v>22076.78602254819</v>
+        <v>26342.87920686762</v>
       </c>
       <c r="F2" t="n">
+        <v>26342.87920686761</v>
+      </c>
+      <c r="G2" t="n">
         <v>26342.87920686762</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26342.87920686763</v>
       </c>
       <c r="H2" t="n">
         <v>26342.87920686762</v>
@@ -26341,7 +26341,7 @@
         <v>26342.87920686762</v>
       </c>
       <c r="L2" t="n">
-        <v>26807.36599452043</v>
+        <v>26807.36599452044</v>
       </c>
       <c r="M2" t="n">
         <v>26807.36599452043</v>
@@ -26350,10 +26350,10 @@
         <v>26807.36599452043</v>
       </c>
       <c r="O2" t="n">
+        <v>26807.36599452041</v>
+      </c>
+      <c r="P2" t="n">
         <v>26807.36599452043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>26807.36599452042</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.1493924626</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106386</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725243</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471855</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338238</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143492</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978834</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341179</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167177.9510711173</v>
+        <v>118479.0404528103</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154526.7187594514</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>45725.81943247915</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962281</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
@@ -26442,16 +26442,16 @@
         <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
-        <v>59904.18292625598</v>
+        <v>59904.18292625602</v>
       </c>
       <c r="M4" t="n">
         <v>68372.72551926989</v>
       </c>
       <c r="N4" t="n">
-        <v>68372.72551926989</v>
+        <v>68372.72551926991</v>
       </c>
       <c r="O4" t="n">
         <v>68372.72551926989</v>
@@ -26470,16 +26470,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295563</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710196</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,13 +26500,13 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
+        <v>75515.61472608971</v>
+      </c>
+      <c r="N5" t="n">
         <v>75515.61472608973</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>75515.61472608971</v>
-      </c>
-      <c r="O5" t="n">
-        <v>75515.61472608973</v>
       </c>
       <c r="P5" t="n">
         <v>75515.61472608971</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-344309.751860609</v>
+        <v>-300206.3929851913</v>
       </c>
       <c r="C6" t="n">
-        <v>-226314.1017938664</v>
+        <v>-267191.7673603492</v>
       </c>
       <c r="D6" t="n">
-        <v>-226314.1017938664</v>
+        <v>-206191.6560140903</v>
       </c>
       <c r="E6" t="n">
-        <v>-257081.5920095572</v>
+        <v>-288315.51806898</v>
       </c>
       <c r="F6" t="n">
-        <v>-185076.0902132662</v>
+        <v>-105960.4088479303</v>
       </c>
       <c r="G6" t="n">
-        <v>-105937.1845085477</v>
+        <v>-105960.4088479303</v>
       </c>
       <c r="H6" t="n">
-        <v>-105937.1845085477</v>
+        <v>-105960.4088479303</v>
       </c>
       <c r="I6" t="n">
-        <v>-105937.1845085477</v>
+        <v>-105960.4088479303</v>
       </c>
       <c r="J6" t="n">
-        <v>-216951.6498535378</v>
+        <v>-216974.8741929205</v>
       </c>
       <c r="K6" t="n">
-        <v>-105937.1845085476</v>
+        <v>-159628.7359113127</v>
       </c>
       <c r="L6" t="n">
-        <v>-125168.5437409941</v>
+        <v>-133948.7174314312</v>
       </c>
       <c r="M6" t="n">
-        <v>-246439.3956487226</v>
+        <v>-254658.6749886911</v>
       </c>
       <c r="N6" t="n">
-        <v>-184730.174524251</v>
+        <v>-117080.9742508392</v>
       </c>
       <c r="O6" t="n">
         <v>-117080.9742508392</v>
@@ -26719,13 +26719,13 @@
         <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827335</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.527583317982</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977065</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072306</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574103</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317982</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977065</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702085</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574101</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.527583317982</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977065</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072306</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574103</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>245.2466035880579</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>242.8744913696248</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.63482311938384</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>4.929993465757207</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>125.4386722766814</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.3759370314067</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>147.2153150401801</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>114.3481134615747</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>370.1803477317475</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>230.0306701181816</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11.01641148787624</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-5.053384223590637e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874708</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>77.54539097102821</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>632.8234408380863</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.49579817779636</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>227.6226443619435</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>306.5434937270295</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>935.0031416802861</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924961005</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P17" t="n">
-        <v>507.105909296743</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
         <v>186.127402120901</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>350.723060392611</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K41" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>350.7230603926101</v>
       </c>
       <c r="K44" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778284</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38181,7 +38181,7 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
@@ -38193,7 +38193,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
